--- a/Info/ResultadoEquipos.xlsx
+++ b/Info/ResultadoEquipos.xlsx
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Info/ResultadoEquipos.xlsx
+++ b/Info/ResultadoEquipos.xlsx
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
